--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.58903571009682587</v>
+        <v>0.58903571918203956</v>
       </c>
       <c r="C2">
-        <v>1.740369739551141</v>
+        <v>1.7403697354601815</v>
       </c>
       <c r="D2">
-        <v>3.1104786249731782</v>
+        <v>3.1104786288507804</v>
       </c>
       <c r="E2">
-        <v>4.1552908199085454</v>
+        <v>4.1552908200886733</v>
       </c>
       <c r="F2">
-        <v>1.3636949877474265</v>
+        <v>1.3636949847336119</v>
       </c>
       <c r="G2">
-        <v>0.41965768031403594</v>
+        <v>0.41965767858771008</v>
       </c>
       <c r="H2">
-        <v>1.2552378137302806</v>
+        <v>1.2552378050085149</v>
       </c>
       <c r="I2">
-        <v>1.7926540780135205</v>
+        <v>1.7926540781892473</v>
       </c>
       <c r="J2">
-        <v>3.2408389078875608</v>
+        <v>3.2408389222488627</v>
       </c>
       <c r="K2">
-        <v>0.97956201948384558</v>
+        <v>0.97956201537136023</v>
       </c>
       <c r="L2">
-        <v>1.0519068288497053</v>
+        <v>1.051906829693714</v>
       </c>
       <c r="M2">
-        <v>-1.3974412858051013</v>
+        <v>-1.397441286243214</v>
       </c>
       <c r="N2">
-        <v>2.0897584388023067</v>
+        <v>2.08975843440553</v>
       </c>
       <c r="O2">
-        <v>2.0738618266726476</v>
+        <v>2.0738618308994425</v>
       </c>
       <c r="P2">
-        <v>2.593373661355963</v>
+        <v>2.5933736591397496</v>
       </c>
       <c r="Q2">
-        <v>9.0524259509506932E-2</v>
+        <v>9.0524257857565085E-2</v>
       </c>
       <c r="R2">
-        <v>-0.92012669773406486</v>
+        <v>-0.92012669354727072</v>
       </c>
       <c r="S2">
-        <v>4.21355277541051</v>
+        <v>4.2135527754896227</v>
       </c>
       <c r="T2">
-        <v>3.2594753640821024</v>
+        <v>3.259475363997459</v>
       </c>
       <c r="U2">
-        <v>-1.0097641958459937E-2</v>
+        <v>-1.009764410790533E-2</v>
       </c>
       <c r="V2">
-        <v>1.2788900879569165</v>
+        <v>1.2788900805654435</v>
       </c>
       <c r="W2">
-        <v>-0.69333078293422457</v>
+        <v>-0.69333080865969499</v>
       </c>
       <c r="X2">
-        <v>0.38876125611712475</v>
+        <v>0.38876125436222031</v>
       </c>
       <c r="Y2">
-        <v>3.5896779907666168</v>
+        <v>3.5896779803993391</v>
       </c>
       <c r="Z2">
-        <v>2.0420581144898224</v>
+        <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>4.840042345517487</v>
+        <v>4.840042341550677</v>
       </c>
       <c r="AB2">
-        <v>4.1019368086342372</v>
+        <v>4.101936819155652</v>
       </c>
       <c r="AC2">
-        <v>0.67941953831662949</v>
+        <v>0.67941953226930529</v>
       </c>
       <c r="AD2">
-        <v>5.3238147985128741</v>
+        <v>5.3238148014868401</v>
       </c>
       <c r="AE2">
-        <v>1.6468942410190393</v>
+        <v>1.6468942068534516</v>
       </c>
       <c r="AF2">
-        <v>2.3595916059926356</v>
+        <v>2.35959158577124</v>
       </c>
       <c r="AG2">
-        <v>2.6789712485610684</v>
+        <v>2.6789712555460881</v>
       </c>
       <c r="AH2">
-        <v>2.5959077338568082</v>
+        <v>2.5959077235895087</v>
       </c>
       <c r="AI2">
-        <v>4.8916148439054226</v>
+        <v>4.8916148136228381</v>
       </c>
       <c r="AJ2">
-        <v>2.59959026608264</v>
+        <v>2.5995902421708239</v>
       </c>
       <c r="AK2">
-        <v>3.0050094739411151</v>
+        <v>3.0050094794059898</v>
       </c>
       <c r="AL2">
-        <v>-0.38213848597590228</v>
+        <v>-0.38213850504221825</v>
       </c>
       <c r="AM2">
-        <v>2.8616854995231016</v>
+        <v>2.8616854811904409</v>
       </c>
       <c r="AN2">
-        <v>2.809674277780656</v>
+        <v>2.8096742695001473</v>
       </c>
       <c r="AO2">
-        <v>4.7578414109623663</v>
+        <v>4.7578414225578509</v>
       </c>
       <c r="AP2">
-        <v>2.8754850827758505</v>
+        <v>2.8754850621224102</v>
       </c>
       <c r="AQ2">
-        <v>-0.38639290985819874</v>
+        <v>-0.3863929271143855</v>
       </c>
       <c r="AR2">
-        <v>4.0536095300504948</v>
+        <v>4.0536095307376616</v>
       </c>
       <c r="AS2">
-        <v>4.8325958778987177</v>
+        <v>4.832595868513617</v>
       </c>
       <c r="AT2">
-        <v>1.9452776896534205</v>
+        <v>1.9452777097538985</v>
       </c>
       <c r="AU2">
-        <v>2.4049115649513344</v>
+        <v>2.4049115537103627</v>
       </c>
       <c r="AV2">
-        <v>2.8281841104972796</v>
+        <v>2.8281841199950435</v>
       </c>
       <c r="AW2">
-        <v>1.4089484206420062</v>
+        <v>1.4089484009383082</v>
       </c>
       <c r="AX2">
-        <v>4.3962297778093751</v>
+        <v>4.3962297940146602</v>
       </c>
       <c r="AY2">
-        <v>4.7878726302307575</v>
+        <v>4.787872634349104</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>1.7717248128992023</v>
       </c>
       <c r="C3">
-        <v>1.6544443704439602</v>
+        <v>1.6544443719702804</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>3.4844253832631447</v>
       </c>
       <c r="E3">
-        <v>3.221308206655138</v>
+        <v>3.2213082114837275</v>
       </c>
       <c r="F3">
-        <v>1.3019627822563824</v>
+        <v>1.3019627791677284</v>
       </c>
       <c r="G3">
-        <v>2.7310147311797941</v>
+        <v>2.7310147417144086</v>
       </c>
       <c r="H3">
-        <v>-0.52315534404288389</v>
+        <v>-0.52315534417911391</v>
       </c>
       <c r="I3">
-        <v>0.66234266557531263</v>
+        <v>0.66234266364600181</v>
       </c>
       <c r="J3">
-        <v>3.6443869884912226</v>
+        <v>3.6443870275023471</v>
       </c>
       <c r="K3">
-        <v>4.8823568935680486</v>
+        <v>4.882356893019427</v>
       </c>
       <c r="L3">
-        <v>3.0624093121742813</v>
+        <v>3.0624093091173874</v>
       </c>
       <c r="M3">
-        <v>6.4690618913419559E-3</v>
+        <v>6.4370511890492312E-3</v>
       </c>
       <c r="N3">
-        <v>1.6688906401766239</v>
+        <v>1.6688906381123014</v>
       </c>
       <c r="O3">
-        <v>-2.6738872081336007</v>
+        <v>-2.673887220900188</v>
       </c>
       <c r="P3">
-        <v>2.9134055586525305</v>
+        <v>2.9134055468808215</v>
       </c>
       <c r="Q3">
-        <v>1.0873600277395059</v>
+        <v>1.0873600318568326</v>
       </c>
       <c r="R3">
-        <v>0.67302122257660357</v>
+        <v>0.67302120142693267</v>
       </c>
       <c r="S3">
-        <v>3.1748766417754948</v>
+        <v>3.1748766405275091</v>
       </c>
       <c r="T3">
-        <v>3.2978392809073873</v>
+        <v>3.2978392833633068</v>
       </c>
       <c r="U3">
-        <v>1.8629842094466675</v>
+        <v>1.8629842115616406</v>
       </c>
       <c r="V3">
-        <v>1.7767696326743343</v>
+        <v>1.776769633170961</v>
       </c>
       <c r="W3">
-        <v>0.31092544812327866</v>
+        <v>0.3109254506967512</v>
       </c>
       <c r="X3">
-        <v>-0.64107441663027798</v>
+        <v>-0.64107441971165746</v>
       </c>
       <c r="Y3">
-        <v>4.5485010588678962</v>
+        <v>4.5485010408012281</v>
       </c>
       <c r="Z3">
-        <v>2.4875601012022783</v>
+        <v>2.4875600963056574</v>
       </c>
       <c r="AA3">
-        <v>4.3018928382885315</v>
+        <v>4.3018928494266664</v>
       </c>
       <c r="AB3">
-        <v>3.8148742957714941</v>
+        <v>3.8148743026276106</v>
       </c>
       <c r="AC3">
-        <v>4.7806311631955891</v>
+        <v>4.7806311528193053</v>
       </c>
       <c r="AD3">
-        <v>5.413810025586586</v>
+        <v>5.4138100239503304</v>
       </c>
       <c r="AE3">
-        <v>3.2571936238669696</v>
+        <v>3.2571935984446623</v>
       </c>
       <c r="AF3">
-        <v>2.8594328424784359</v>
+        <v>2.8594328057771179</v>
       </c>
       <c r="AG3">
-        <v>2.1025156584134419</v>
+        <v>2.1025156237151834</v>
       </c>
       <c r="AH3">
-        <v>1.3390591196833272</v>
+        <v>1.3390590796765922</v>
       </c>
       <c r="AI3">
-        <v>9.1009290396778635</v>
+        <v>9.1009290142125856</v>
       </c>
       <c r="AJ3">
-        <v>4.9810685648753825</v>
+        <v>4.9810685647079795</v>
       </c>
       <c r="AK3">
-        <v>3.3202302704979836</v>
+        <v>3.3202302379368795</v>
       </c>
       <c r="AL3">
-        <v>2.2911978674591222</v>
+        <v>2.291197900623962</v>
       </c>
       <c r="AM3">
-        <v>3.1971176711269171</v>
+        <v>3.1971176599081921</v>
       </c>
       <c r="AN3">
-        <v>-1.0246549269013614</v>
+        <v>-1.0246549302555026</v>
       </c>
       <c r="AO3">
-        <v>5.1830040416949164</v>
+        <v>5.1830040543479301</v>
       </c>
       <c r="AP3">
-        <v>0.85718965430981142</v>
+        <v>0.85718963966488904</v>
       </c>
       <c r="AQ3">
-        <v>2.1928289598838955</v>
+        <v>2.1928289586012708</v>
       </c>
       <c r="AR3">
-        <v>5.3397561554036983</v>
+        <v>5.3397561599260808</v>
       </c>
       <c r="AS3">
-        <v>3.4553290347473391</v>
+        <v>3.4553290406566668</v>
       </c>
       <c r="AT3">
-        <v>3.0883730146022712</v>
+        <v>3.0883729911346274</v>
       </c>
       <c r="AU3">
-        <v>1.8515340648571923</v>
+        <v>1.8515340465864523</v>
       </c>
       <c r="AV3">
-        <v>1.8848403451894207</v>
+        <v>1.8848403298824126</v>
       </c>
       <c r="AW3">
-        <v>1.6675809272946702</v>
+        <v>1.6675807250148569</v>
       </c>
       <c r="AX3">
-        <v>2.9557218351916741</v>
+        <v>2.9557217886930673</v>
       </c>
       <c r="AY3">
-        <v>5.5833252755276019</v>
+        <v>5.5833252674904621</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.58903571918203956</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7403697354601815</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.1104786288507804</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.1552908200886733</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.3636949847336119</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.41965767858771008</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.2552378050085149</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.7926540781892473</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.2408389222488627</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.97956201537136023</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.051906829693714</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.397441286243214</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.08975843440553</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.0738618308994425</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.5933736591397496</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.0524257857565085E-2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.92012669354727072</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.2135527754896227</v>
+        <v>2.9945423446913506</v>
       </c>
       <c r="T2">
         <v>3.259475363997459</v>
@@ -588,55 +477,55 @@
         <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>4.840042341550677</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.101936819155652</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.67941953226930529</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.3238148014868401</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.6468942068534516</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.35959158577124</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.6789712555460881</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.5959077235895087</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.8916148136228381</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.5995902421708239</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.0050094794059898</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.38213850504221825</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.8616854811904409</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.8096742695001473</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.7578414225578509</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.8754850621224102</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.3863929271143855</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.0536095307376616</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.7717248128992023</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.6544443719702804</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.4844253832631447</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.2213082114837275</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.3019627791677284</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.7310147417144086</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.52315534417911391</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.66234266364600181</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.6443870275023471</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.882356893019427</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.0624093091173874</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.4370511890492312E-3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.6688906381123014</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.673887220900188</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.9134055468808215</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.0873600318568326</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.67302120142693267</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.1748766405275091</v>
@@ -743,55 +629,55 @@
         <v>2.4875600963056574</v>
       </c>
       <c r="AA3">
-        <v>4.3018928494266664</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.8148743026276106</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.7806311528193053</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.4138100239503304</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.2571935984446623</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.8594328057771179</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.1025156237151834</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.3390590796765922</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.1009290142125856</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.9810685647079795</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.3202302379368795</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.291197900623962</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1971176599081921</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.0246549302555026</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>5.1830040543479301</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.85718963966488904</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.1928289586012708</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.3397561599260808</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.58903571009682587</v>
-      </c>
       <c r="C2">
-        <v>1.3124221545130503</v>
-      </c>
-      <c r="D2">
-        <v>3.1104786249731782</v>
+        <v>-0.92012669354727072</v>
       </c>
       <c r="E2">
-        <v>4.1552908199085454</v>
+        <v>-0.3863929271143855</v>
       </c>
       <c r="F2">
         <v>1.3636949877474265</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>-1.3115821127436811</v>
       </c>
       <c r="C3">
-        <v>1.6544443704439602</v>
+        <v>0.67302120142693267</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>-0.61150265465160758</v>
       </c>
       <c r="E3">
-        <v>3.221308206655138</v>
+        <v>2.1505816834748517</v>
       </c>
       <c r="F3">
         <v>1.3019627822563824</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.58903571009682587</v>
-      </c>
-      <c r="C2">
-        <v>1.3124221545130503</v>
+        <v>1.9702331146750449</v>
       </c>
       <c r="D2">
-        <v>3.1104786249731782</v>
-      </c>
-      <c r="E2">
-        <v>4.1552908199085454</v>
+        <v>2.8616854811904409</v>
       </c>
       <c r="F2">
         <v>1.3636949877474265</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>1.6688906381123014</v>
       </c>
       <c r="C3">
-        <v>1.6544443704439602</v>
+        <v>-1.3115821127436811</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>3.1971176599081921</v>
       </c>
       <c r="E3">
-        <v>4.4542838225550803</v>
+        <v>-0.61150265465160758</v>
       </c>
       <c r="F3">
         <v>1.3019627822563824</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.58903571918203956</v>
+      </c>
+      <c r="C2">
+        <v>1.3124221294314853</v>
+      </c>
+      <c r="D2">
+        <v>3.1104786288507804</v>
+      </c>
+      <c r="E2">
+        <v>4.1552908200886733</v>
+      </c>
+      <c r="F2">
+        <v>1.3636949847336119</v>
+      </c>
+      <c r="G2">
+        <v>1.2947222789652189</v>
+      </c>
+      <c r="H2">
+        <v>1.2552378050085149</v>
+      </c>
+      <c r="I2">
+        <v>2.4410180411428382</v>
+      </c>
+      <c r="J2">
+        <v>3.2408389222488627</v>
+      </c>
+      <c r="K2">
+        <v>0.97956201537136023</v>
+      </c>
+      <c r="L2">
+        <v>1.5507592702002866</v>
+      </c>
+      <c r="M2">
+        <v>8.3507765329704879E-3</v>
+      </c>
+      <c r="N2">
         <v>1.9702331146750449</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.9390730811110592</v>
+      </c>
+      <c r="Q2">
+        <v>9.0524257857565085E-2</v>
+      </c>
+      <c r="R2">
+        <v>-0.92012669354727072</v>
+      </c>
+      <c r="T2">
+        <v>2.6141480668847672</v>
+      </c>
+      <c r="U2">
+        <v>-1.009764410790533E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.9169851603417429</v>
+      </c>
+      <c r="W2">
+        <v>-0.69333080865969499</v>
+      </c>
+      <c r="X2">
+        <v>0.38876125436222031</v>
+      </c>
+      <c r="Y2">
+        <v>3.5896779803993391</v>
+      </c>
+      <c r="Z2">
+        <v>2.042058109454032</v>
+      </c>
+      <c r="AA2">
+        <v>4.840042341550677</v>
+      </c>
+      <c r="AB2">
+        <v>4.101936819155652</v>
+      </c>
+      <c r="AC2">
+        <v>0.67941953226930529</v>
+      </c>
+      <c r="AD2">
+        <v>5.3238148014868401</v>
+      </c>
+      <c r="AE2">
+        <v>1.6468942068534516</v>
+      </c>
+      <c r="AF2">
+        <v>2.35959158577124</v>
+      </c>
+      <c r="AG2">
+        <v>2.6789712555460881</v>
+      </c>
+      <c r="AH2">
+        <v>2.5959077235895087</v>
+      </c>
+      <c r="AI2">
+        <v>4.8916148136228381</v>
+      </c>
+      <c r="AJ2">
+        <v>2.5995902421708239</v>
+      </c>
+      <c r="AK2">
+        <v>3.0050094794059898</v>
+      </c>
+      <c r="AL2">
+        <v>-0.38213850504221825</v>
+      </c>
+      <c r="AM2">
         <v>2.8616854811904409</v>
       </c>
-      <c r="F2">
-        <v>1.3636949877474265</v>
-      </c>
-      <c r="G2">
-        <v>1.2947223377545678</v>
-      </c>
-      <c r="H2">
-        <v>1.2552378137302806</v>
-      </c>
-      <c r="I2">
-        <v>2.4410180246795412</v>
-      </c>
-      <c r="J2">
-        <v>3.2408389078875608</v>
-      </c>
-      <c r="K2">
-        <v>0.97956201948384558</v>
-      </c>
-      <c r="L2">
-        <v>1.5507592697270538</v>
-      </c>
-      <c r="M2">
-        <v>8.3507847075811395E-3</v>
-      </c>
-      <c r="N2">
-        <v>1.9702331191251754</v>
-      </c>
-      <c r="P2">
-        <v>2.9390730757853367</v>
-      </c>
-      <c r="Q2">
-        <v>9.0524259509506932E-2</v>
-      </c>
-      <c r="R2">
-        <v>-0.92012669773406486</v>
-      </c>
-      <c r="T2">
-        <v>2.6141480673547632</v>
-      </c>
-      <c r="U2">
-        <v>-1.0097641958459937E-2</v>
-      </c>
-      <c r="V2">
-        <v>1.9169851731491563</v>
-      </c>
-      <c r="W2">
-        <v>-0.69333078293422457</v>
-      </c>
-      <c r="X2">
-        <v>0.38876125611712475</v>
-      </c>
-      <c r="Y2">
-        <v>3.5896779907666168</v>
-      </c>
-      <c r="Z2">
-        <v>2.0420581144898224</v>
-      </c>
-      <c r="AA2">
-        <v>4.840042345517487</v>
-      </c>
-      <c r="AB2">
-        <v>4.1019368086342372</v>
-      </c>
-      <c r="AC2">
-        <v>0.67941953831662949</v>
-      </c>
-      <c r="AD2">
-        <v>5.3238147985128741</v>
-      </c>
-      <c r="AE2">
-        <v>1.6468942410190393</v>
-      </c>
-      <c r="AF2">
-        <v>2.3595916059926356</v>
-      </c>
-      <c r="AG2">
-        <v>2.6789712485610684</v>
-      </c>
-      <c r="AH2">
-        <v>2.5959077338568082</v>
-      </c>
-      <c r="AI2">
-        <v>4.8916148439054226</v>
-      </c>
-      <c r="AJ2">
-        <v>2.59959026608264</v>
-      </c>
-      <c r="AK2">
-        <v>3.0050094739411151</v>
-      </c>
-      <c r="AL2">
-        <v>-0.38213848597590228</v>
-      </c>
-      <c r="AM2">
-        <v>2.8616854995231016</v>
-      </c>
       <c r="AO2">
-        <v>4.7578414109623663</v>
+        <v>4.7578414225578509</v>
       </c>
       <c r="AP2">
-        <v>3.3199728168446385</v>
+        <v>3.3199728076445059</v>
       </c>
       <c r="AQ2">
-        <v>-0.38639290985819874</v>
+        <v>-0.3863929271143855</v>
       </c>
       <c r="AR2">
-        <v>4.0536095300504948</v>
+        <v>4.0536095307376616</v>
       </c>
       <c r="AS2">
-        <v>4.8325958778987177</v>
+        <v>4.832595868513617</v>
       </c>
       <c r="AT2">
-        <v>1.9452776896534205</v>
+        <v>1.9452777097538985</v>
       </c>
       <c r="AU2">
-        <v>1.3163336585709391</v>
+        <v>1.3163336327302528</v>
       </c>
       <c r="AV2">
-        <v>2.8281841104972796</v>
+        <v>2.8281841199950435</v>
       </c>
       <c r="AW2">
-        <v>1.4089484206420062</v>
+        <v>1.4089484009383082</v>
       </c>
       <c r="AX2">
-        <v>4.3962297778093751</v>
+        <v>4.3962297940146602</v>
       </c>
       <c r="AY2">
-        <v>4.7878726302307575</v>
+        <v>4.787872634349104</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.7717248128992023</v>
+      </c>
+      <c r="C3">
+        <v>1.6544443719702804</v>
+      </c>
+      <c r="D3">
+        <v>3.4844253832631447</v>
+      </c>
+      <c r="E3">
+        <v>4.4542838267683749</v>
+      </c>
+      <c r="F3">
+        <v>1.3019627791677284</v>
+      </c>
+      <c r="G3">
+        <v>2.7310147417144086</v>
+      </c>
+      <c r="H3">
+        <v>-0.52315534417911391</v>
+      </c>
+      <c r="I3">
+        <v>0.66234266364600181</v>
+      </c>
+      <c r="J3">
+        <v>3.6443870275023471</v>
+      </c>
+      <c r="K3">
+        <v>4.171440834615078</v>
+      </c>
+      <c r="L3">
+        <v>3.0624093091173874</v>
+      </c>
+      <c r="M3">
+        <v>-0.65736301159951083</v>
+      </c>
+      <c r="N3">
         <v>1.6688906381123014</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-1.3115821127436811</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.9134055468808215</v>
+      </c>
+      <c r="Q3">
+        <v>1.0873600318568326</v>
+      </c>
+      <c r="R3">
+        <v>0.67302120142693267</v>
+      </c>
+      <c r="S3">
+        <v>3.1748766405275091</v>
+      </c>
+      <c r="T3">
+        <v>3.2978392833633068</v>
+      </c>
+      <c r="U3">
+        <v>1.8629842115616406</v>
+      </c>
+      <c r="V3">
+        <v>2.1409166438604754</v>
+      </c>
+      <c r="W3">
+        <v>0.3109254506967512</v>
+      </c>
+      <c r="X3">
+        <v>-0.64107441971165746</v>
+      </c>
+      <c r="Y3">
+        <v>4.5485010408012281</v>
+      </c>
+      <c r="Z3">
+        <v>2.4875600963056574</v>
+      </c>
+      <c r="AA3">
+        <v>4.3018928494266664</v>
+      </c>
+      <c r="AB3">
+        <v>3.8148743026276106</v>
+      </c>
+      <c r="AC3">
+        <v>4.7806311528193053</v>
+      </c>
+      <c r="AD3">
+        <v>5.4138100239503304</v>
+      </c>
+      <c r="AE3">
+        <v>3.2571935984446623</v>
+      </c>
+      <c r="AF3">
+        <v>2.8594328057771179</v>
+      </c>
+      <c r="AG3">
+        <v>2.1025156237151834</v>
+      </c>
+      <c r="AH3">
+        <v>1.3390590796765922</v>
+      </c>
+      <c r="AI3">
+        <v>4.209053411504728</v>
+      </c>
+      <c r="AJ3">
+        <v>4.9810685647079795</v>
+      </c>
+      <c r="AK3">
+        <v>3.3202302379368795</v>
+      </c>
+      <c r="AL3">
+        <v>2.291197900623962</v>
+      </c>
+      <c r="AM3">
         <v>3.1971176599081921</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-0.61150265465160758</v>
       </c>
-      <c r="F3">
-        <v>1.3019627822563824</v>
-      </c>
-      <c r="G3">
-        <v>2.7310147311797941</v>
-      </c>
-      <c r="H3">
-        <v>-0.52315534404288389</v>
-      </c>
-      <c r="I3">
-        <v>0.66234266557531263</v>
-      </c>
-      <c r="J3">
-        <v>3.6443869884912226</v>
-      </c>
-      <c r="K3">
-        <v>4.1714408346268463</v>
-      </c>
-      <c r="L3">
-        <v>3.0624093121742813</v>
-      </c>
-      <c r="M3">
-        <v>-0.65727521539619072</v>
-      </c>
-      <c r="N3">
-        <v>1.6688906401766239</v>
-      </c>
-      <c r="O3">
-        <v>-1.3115820906867564</v>
-      </c>
-      <c r="P3">
-        <v>2.9134055586525305</v>
-      </c>
-      <c r="Q3">
-        <v>1.0873600277395059</v>
-      </c>
-      <c r="R3">
-        <v>0.67302122257660357</v>
-      </c>
-      <c r="S3">
-        <v>3.1748766417754948</v>
-      </c>
-      <c r="T3">
-        <v>3.2978392809073873</v>
-      </c>
-      <c r="U3">
-        <v>1.8629842094466675</v>
-      </c>
-      <c r="V3">
-        <v>2.1409166394996806</v>
-      </c>
-      <c r="W3">
-        <v>0.31092544812327866</v>
-      </c>
-      <c r="X3">
-        <v>-0.64107441663027798</v>
-      </c>
-      <c r="Y3">
-        <v>4.5485010588678962</v>
-      </c>
-      <c r="Z3">
-        <v>2.4875601012022783</v>
-      </c>
-      <c r="AA3">
-        <v>4.3018928382885315</v>
-      </c>
-      <c r="AB3">
-        <v>3.8148742957714941</v>
-      </c>
-      <c r="AC3">
-        <v>4.7806311631955891</v>
-      </c>
-      <c r="AD3">
-        <v>5.413810025586586</v>
-      </c>
-      <c r="AE3">
-        <v>3.2571936238669696</v>
-      </c>
-      <c r="AF3">
-        <v>2.8594328424784359</v>
-      </c>
-      <c r="AG3">
-        <v>2.1025156584134419</v>
-      </c>
-      <c r="AH3">
-        <v>1.3390591196833272</v>
-      </c>
-      <c r="AI3">
-        <v>4.2090534058598816</v>
-      </c>
-      <c r="AJ3">
-        <v>4.9810685648753825</v>
-      </c>
-      <c r="AK3">
-        <v>3.3202302704979836</v>
-      </c>
-      <c r="AL3">
-        <v>2.2911978674591222</v>
-      </c>
-      <c r="AM3">
-        <v>3.1971176711269171</v>
-      </c>
-      <c r="AN3">
-        <v>-0.61150265983948782</v>
-      </c>
       <c r="AO3">
-        <v>5.1830040416949164</v>
+        <v>5.1830040543479301</v>
       </c>
       <c r="AP3">
-        <v>0.85718965430981142</v>
+        <v>0.85718963966488904</v>
       </c>
       <c r="AQ3">
-        <v>2.1505816991712989</v>
+        <v>2.1505816834748517</v>
       </c>
       <c r="AR3">
-        <v>5.3397561554036983</v>
+        <v>5.3397561599260808</v>
       </c>
       <c r="AS3">
-        <v>3.4553290347473391</v>
+        <v>3.4553290406566668</v>
       </c>
       <c r="AT3">
-        <v>3.0883730146022712</v>
+        <v>3.0883729911346274</v>
       </c>
       <c r="AU3">
-        <v>2.0115996787596164</v>
+        <v>2.011599677797073</v>
       </c>
       <c r="AV3">
-        <v>1.8848403451894207</v>
+        <v>1.8848403298824126</v>
       </c>
       <c r="AW3">
-        <v>1.6675809272946702</v>
+        <v>1.6675807250148569</v>
       </c>
       <c r="AX3">
-        <v>2.9557218351916741</v>
+        <v>2.9557217886930673</v>
       </c>
       <c r="AY3">
-        <v>5.5833252755276019</v>
+        <v>5.5833252674904621</v>
       </c>
     </row>
   </sheetData>
